--- a/release-notes/2023-04/closed-bugs-sle-2023-04.xlsx
+++ b/release-notes/2023-04/closed-bugs-sle-2023-04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nio365.sharepoint.com/sites/IoTProgram/Shared Documents/ProjectDocuments/SystemLink 2023/2023.Q2 (v.23.3)(releasing out of Cycle 23.C1)/Common docs/Release Notes for SLE/SLE 2023-03 Release Notes - Jan &amp; Feb iterations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markblack/repos/github/install-systemlink-enterprise/release-notes/2023-04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59BD1BD7-DFDB-48B1-85C4-637B9B3AE503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBE8203-38B4-6D4A-83B3-7D6E2329FCBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="closed bugs in last iteration" sheetId="1" r:id="rId1"/>
@@ -119,20 +119,20 @@
     <t>Data spaces | No common data points to plot message comes for step with valid measurements</t>
   </si>
   <si>
-    <t>Dataspaces | Empty chart</t>
-  </si>
-  <si>
     <t>[XRAY] Update jupyterhub/configurable-http-proxy to 4.5.4</t>
   </si>
   <si>
     <t xml:space="preserve">Downloading html files fails using SLE </t>
+  </si>
+  <si>
+    <t>Dataspaces | Provide user feedback when query returns an empty chart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -617,7 +617,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -973,19 +973,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -999,7 +999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2314820</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2327679</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2328893</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2350245</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2332938</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2317172</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2207450</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2351831</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2357259</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2347391</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2353783</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2357255</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2320311</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2324705</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2280856</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2280904</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2330494</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2337006</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2339988</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2346254</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2346267</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2346702</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2346718</v>
       </c>
@@ -1315,13 +1315,13 @@
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2333170</v>
       </c>
@@ -1329,13 +1329,13 @@
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>2328035</v>
       </c>
@@ -1343,13 +1343,12 @@
         <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
@@ -1359,15 +1358,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CC68938C25E75A48B38E3943F7278D4C" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7d19bbda7881b44758ae8fac1a07bbdc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="58dd0d8a-0b6e-4df8-afdb-fbe9bd3e42e9" xmlns:ns3="8f35f8fb-94b8-4296-88b5-253c68a5f93d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="70197f4cb1364d06e203dd3b155b05ff" ns2:_="" ns3:_="">
     <xsd:import namespace="58dd0d8a-0b6e-4df8-afdb-fbe9bd3e42e9"/>
@@ -1584,6 +1574,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1591,13 +1590,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F5BA7BF-C649-45A8-BA98-72C6A48D6AFB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30551770-DC64-42F2-B311-4A229A9710C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="58dd0d8a-0b6e-4df8-afdb-fbe9bd3e42e9"/>
+    <ds:schemaRef ds:uri="8f35f8fb-94b8-4296-88b5-253c68a5f93d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30551770-DC64-42F2-B311-4A229A9710C7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F5BA7BF-C649-45A8-BA98-72C6A48D6AFB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E6B2099-BF96-40FC-B6D0-611F0B5B8DEE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E6B2099-BF96-40FC-B6D0-611F0B5B8DEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>